--- a/Documents/SchriftlicheTestfaelle.xlsx
+++ b/Documents/SchriftlicheTestfaelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Dropbox\SS20\SE2\Uebung5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7FDB7C-5AF1-43A4-80B3-0817729E7456}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67519C6-2279-4F5A-90B8-BF3C1BE65A5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StellenanzeigeErstellen" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
   <si>
     <t>Stellenanzeige makieren und löschen</t>
   </si>
@@ -290,9 +290,6 @@
     <t>Login Student: Userid: "kpierz2s" und Passwort "Test1234" einloggen</t>
   </si>
   <si>
-    <t>Personalierte Main view</t>
-  </si>
-  <si>
     <t>Logout Button drücken</t>
   </si>
   <si>
@@ -351,6 +348,57 @@
   </si>
   <si>
     <t>Startseite mit der URL http://sepp-test.inf.h-brs.de:8080/CollAtAldernativ_Project-1.0-SNAPSHOT/#!login aufrufen</t>
+  </si>
+  <si>
+    <t>personalisiert Main view</t>
+  </si>
+  <si>
+    <t>Nutzername</t>
+  </si>
+  <si>
+    <t>positiv</t>
+  </si>
+  <si>
+    <t>unternehmertest</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>test@test.de</t>
+  </si>
+  <si>
+    <t>Passwort</t>
+  </si>
+  <si>
+    <t>Test1234</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>kpierz2s</t>
+  </si>
+  <si>
+    <t>Suchfeld</t>
+  </si>
+  <si>
+    <t>Proj</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>negativ</t>
+  </si>
+  <si>
+    <t>))</t>
+  </si>
+  <si>
+    <t>%%%</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;</t>
   </si>
 </sst>
 </file>
@@ -635,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -717,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1299,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C24:C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1395,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1409,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -1423,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1511,19 +1562,81 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="C28" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="C30" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1538,7 +1651,7 @@
   <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C23:C24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1631,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1645,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -1659,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1673,10 +1786,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1687,10 +1800,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1813,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1879,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1907,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1921,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -2026,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>19</v>
@@ -2139,7 +2252,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="17"/>
@@ -2150,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="17"/>
@@ -2164,10 +2277,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="17"/>
@@ -2178,10 +2291,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="17"/>
@@ -2250,19 +2363,48 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2276,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -2516,23 +2658,42 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{AA7F0062-A4A6-4AAA-9BA5-BB184090CFF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
